--- a/data/trans_bre/P16A09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>215,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>177,79%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,43; 5,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,35; 10,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 8,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,0; 11,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,52; 107,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>122,41; 354,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,44; 295,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,54; 312,23</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>121,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,61%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 1,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 1,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 1,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 2,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,65; 180,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,36; 145,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,22; 319,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,56; 180,28</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1319,31%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,3; 3,06</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 1,51</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 1,77</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 4,18</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-40,02; 622,62</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-75,8; 262,76</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>202,82; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>177,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>190,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>183,01%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 3,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,76; 4,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 3,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,58; 4,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,95; 124,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>107,62; 268,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>108,72; 317,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>111,64; 267,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>177,79%</t>
+          <t>177,9%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,0; 11,86</t>
+          <t>5,78; 11,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,54; 312,23</t>
+          <t>92,74; 310,36</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>97,02%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,63</t>
+          <t>0,55; 2,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,56; 180,28</t>
+          <t>31,71; 224,81</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1319,31%</t>
+          <t>1271,93%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,18</t>
+          <t>1,75; 3,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>202,82; —</t>
+          <t>201,71; —</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>183,01%</t>
+          <t>187,81%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,43</t>
+          <t>2,18; 4,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>111,64; 267,0</t>
+          <t>111,69; 300,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,86</t>
+          <t>1,43; 5,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 10,66</t>
+          <t>6,15; 10,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 8,02</t>
+          <t>3,37; 8,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 11,15</t>
+          <t>5,88; 10,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,52; 107,72</t>
+          <t>16,79; 99,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>122,41; 354,84</t>
+          <t>119,45; 352,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>72,44; 295,37</t>
+          <t>73,8; 309,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,74; 310,36</t>
+          <t>94,5; 315,38</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,5</t>
+          <t>-0,39; 1,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,41</t>
+          <t>-0,4; 1,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,84</t>
+          <t>0,34; 1,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,5</t>
+          <t>0,38; 2,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 180,2</t>
+          <t>-25,79; 158,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 145,1</t>
+          <t>-26,01; 138,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,22; 319,46</t>
+          <t>23,55; 307,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,71; 224,81</t>
+          <t>22,73; 211,78</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,06</t>
+          <t>-0,4; 3,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,51</t>
+          <t>-1,94; 1,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,77</t>
+          <t>0,2; 1,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,92</t>
+          <t>1,77; 4,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 622,62</t>
+          <t>-42,94; 624,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-75,8; 262,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>201,71; —</t>
+          <t>122,6; —</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,14</t>
+          <t>1,14; 3,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,69</t>
+          <t>2,74; 4,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,31</t>
+          <t>1,74; 3,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,19</t>
+          <t>2,27; 4,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,95; 124,09</t>
+          <t>32,77; 123,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>107,62; 268,93</t>
+          <t>106,87; 263,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>108,72; 317,3</t>
+          <t>105,76; 300,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>111,69; 300,47</t>
+          <t>113,4; 305,9</t>
         </is>
       </c>
     </row>
